--- a/生病记录.xlsx
+++ b/生病记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t>每天都有几十次小动作</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1014,10 +1014,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="W24" sqref="W24"/>
+      <selection pane="topRight" activeCell="X26" sqref="X26:X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1818,9 +1818,6 @@
       <c r="W26" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="X26" s="17" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="27" spans="1:30" s="17" customFormat="1" ht="43.5" customHeight="1">
       <c r="A27" s="17" t="s">
@@ -1842,9 +1839,6 @@
         <v>60</v>
       </c>
       <c r="W27" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="X27" s="17" t="s">
         <v>62</v>
       </c>
     </row>

--- a/生病记录.xlsx
+++ b/生病记录.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="整体" sheetId="1" r:id="rId1"/>
     <sheet name="2018年4月" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="2018年5月" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="66">
   <si>
     <t>每天都有几十次小动作</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>38.5℃+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>39.5℃+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,6 +251,22 @@
   </si>
   <si>
     <t>氨溴特罗口服液(易坦静)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北民俗村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他症状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咳嗽有痰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.5℃+ 达到发烧级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,7 +978,7 @@
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="15"/>
       <c r="D2" s="4">
@@ -975,7 +987,7 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="15"/>
       <c r="D3" s="25">
@@ -984,7 +996,7 @@
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="15"/>
       <c r="D4" s="4">
@@ -997,10 +1009,10 @@
       </c>
       <c r="B5" s="39"/>
       <c r="D5" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1012,12 +1024,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AD31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="X26" sqref="X26:X27"/>
+      <selection pane="topRight" activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1032,25 +1044,25 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1064,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="28">
         <v>0</v>
@@ -1076,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1090,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L3" s="29">
         <v>1</v>
@@ -1102,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1116,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L4" s="30">
         <v>2</v>
@@ -1128,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1142,7 +1154,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" s="31">
         <v>3</v>
@@ -1154,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1168,19 +1180,19 @@
         <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L6" s="32">
         <v>4</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="P6" s="36">
         <v>4</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1192,19 +1204,19 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7" s="38">
         <v>5</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P7" s="35">
         <v>5</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1216,7 +1228,7 @@
         <v>6</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
@@ -1230,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -1475,15 +1487,18 @@
         <v>23</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O19" s="22" t="s">
         <v>20</v>
       </c>
+      <c r="X19" s="17" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="4">
         <v>2</v>
@@ -1545,10 +1560,13 @@
       <c r="W20" s="5">
         <v>3</v>
       </c>
+      <c r="X20" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:30" ht="22.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="24">
         <v>0</v>
@@ -1612,6 +1630,9 @@
       <c r="W21" s="20">
         <v>2</v>
       </c>
+      <c r="X21" s="20">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:30" ht="17.25" customHeight="1">
       <c r="A22" s="2" t="s">
@@ -1677,10 +1698,13 @@
       <c r="W22" s="29">
         <v>1</v>
       </c>
+      <c r="X22" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:30" ht="22.5" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -1744,150 +1768,205 @@
       <c r="W23" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" s="17" customFormat="1" ht="111.75" customHeight="1">
-      <c r="A24" s="17" t="s">
+      <c r="X23" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="22.5" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="S24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="T24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="U24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="V24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="W24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="X24" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="17" customFormat="1" ht="111.75" customHeight="1">
+      <c r="A25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="17" t="s">
+      <c r="O25" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="P24" s="17" t="s">
+    </row>
+    <row r="26" spans="1:30" s="17" customFormat="1" ht="17.25" customHeight="1"/>
+    <row r="27" spans="1:30" s="17" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="R27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="S27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="T27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="U27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="V27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="W27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="X27" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="17" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A28" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="R28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="S28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="T28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="W28" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="R24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="T24" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" s="17" customFormat="1" ht="17.25" customHeight="1"/>
-    <row r="26" spans="1:30" s="17" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A26" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="X28" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="17" customFormat="1" ht="33" customHeight="1">
+      <c r="A29" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="P29" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="Q29" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="R29" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="S29" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="T29" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="U29" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="R26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="S26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="T26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="U26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="V26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="W26" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" s="17" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A27" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="P27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="R27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="S27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="T27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="W27" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" s="17" customFormat="1" ht="33" customHeight="1">
-      <c r="A28" s="17" t="s">
+    </row>
+    <row r="30" spans="1:30" s="17" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A30" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="P28" s="17" t="s">
+      <c r="P30" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="Q28" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="R28" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="S28" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="T28" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="U28" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" s="17" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A29" s="17" t="s">
+      <c r="Q30" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="R30" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S30" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T30" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="17" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A31" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="P29" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q29" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="R29" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="S29" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="T29" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" s="17" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A30" s="17" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1901,7 +1980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>

--- a/生病记录.xlsx
+++ b/生病记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="82">
   <si>
     <t>每天都有几十次小动作</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本月认为感冒造成抽动加重,吃药后尿频,同时本月JJJ现象比较严重，他自己说是粘，可我不这么认为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本日之前回忆不清楚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,6 +263,74 @@
   </si>
   <si>
     <t>38.5℃+ 达到发烧级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸鼻子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻咳少痰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻咳有痰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧龙公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺义公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼儿园卧龙公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜宾玩具堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5声咳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸鼻子没有了,白天偶尔嘴角抽动,总体来讲变好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金色时光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸鼻子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月认为感冒造成抽动加重,吃药后尿频,同时本月JJJ现象比较严重，他自己说是粘，可我不这么认为,月底时候基本就剩下JJJ，尿频较轻、嘴角一天抽几次，计划5.2上幼儿园可是没上商量好。去医院复查媳妇自己进去的，没有说JJJ的事情,夸大了静灵口服液的药效，下次应该说明本月生病加重的现象，并且咨询JJJ是否是抽动现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JJJ也变少了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -614,6 +678,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -927,12 +994,16 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="13" customFormat="1">
@@ -984,6 +1055,9 @@
       <c r="D2" s="4">
         <v>2</v>
       </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
@@ -993,6 +1067,9 @@
       <c r="D3" s="25">
         <v>1</v>
       </c>
+      <c r="E3" s="20">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -1002,8 +1079,11 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" ht="177" customHeight="1">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="17" customFormat="1" ht="275.25" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>15</v>
       </c>
@@ -1012,7 +1092,7 @@
         <v>54</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1024,12 +1104,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD31"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="AA24" sqref="AA24"/>
+      <selection pane="topRight" activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1042,7 +1122,7 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -1064,8 +1144,11 @@
       <c r="Q1" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="U1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1090,8 +1173,14 @@
       <c r="Q2" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1116,8 +1205,14 @@
       <c r="Q3" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="U3" s="3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1142,8 +1237,14 @@
       <c r="Q4" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="U4" s="4">
+        <v>2</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1168,8 +1269,14 @@
       <c r="Q5" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="U5" s="5">
+        <v>3</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1186,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P6" s="36">
         <v>4</v>
@@ -1194,8 +1301,14 @@
       <c r="Q6" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="U6" s="6">
+        <v>4</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1218,8 +1331,14 @@
       <c r="Q7" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="U7" s="7">
+        <v>5</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1232,8 +1351,11 @@
       </c>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="U8" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -1246,42 +1368,54 @@
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="U9" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="10">
         <v>8</v>
       </c>
       <c r="L10" s="19"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="U10" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="11">
         <v>9</v>
       </c>
       <c r="L11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="U11" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="16">
         <v>10</v>
       </c>
       <c r="L12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="19"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="U12" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:22">
       <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:22">
       <c r="A15" s="20"/>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -1289,7 +1423,7 @@
       <c r="I15" s="14"/>
       <c r="Q15" s="14"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:22">
       <c r="A16" s="14"/>
       <c r="I16" s="14"/>
       <c r="Q16" s="14"/>
@@ -1493,7 +1627,22 @@
         <v>20</v>
       </c>
       <c r="X19" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="Z19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA19" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB19" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC19" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD19" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -1563,6 +1712,24 @@
       <c r="X20" s="5">
         <v>3</v>
       </c>
+      <c r="Y20" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:30" ht="22.5" customHeight="1">
       <c r="A21" s="2" t="s">
@@ -1633,339 +1800,512 @@
       <c r="X21" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" ht="17.25" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="Y21" s="20">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="20">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="20">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="20">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="19" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A22" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="U22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="W22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="X22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y22" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+    </row>
+    <row r="23" spans="1:30" ht="17.25" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="28">
-        <v>0</v>
-      </c>
-      <c r="C22" s="28">
-        <v>0</v>
-      </c>
-      <c r="D22" s="28">
-        <v>0</v>
-      </c>
-      <c r="E22" s="28">
-        <v>0</v>
-      </c>
-      <c r="F22" s="28">
-        <v>0</v>
-      </c>
-      <c r="I22" s="31">
-        <v>3</v>
-      </c>
-      <c r="J22" s="30">
-        <v>2</v>
-      </c>
-      <c r="K22" s="30">
-        <v>2</v>
-      </c>
-      <c r="L22" s="30">
-        <v>2</v>
-      </c>
-      <c r="M22" s="30">
-        <v>2</v>
-      </c>
-      <c r="N22" s="30">
-        <v>2</v>
-      </c>
-      <c r="O22" s="30">
-        <v>2</v>
-      </c>
-      <c r="P22" s="32">
+      <c r="B23" s="28">
+        <v>0</v>
+      </c>
+      <c r="C23" s="28">
+        <v>0</v>
+      </c>
+      <c r="D23" s="28">
+        <v>0</v>
+      </c>
+      <c r="E23" s="28">
+        <v>0</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0</v>
+      </c>
+      <c r="I23" s="31">
+        <v>3</v>
+      </c>
+      <c r="J23" s="30">
+        <v>2</v>
+      </c>
+      <c r="K23" s="30">
+        <v>2</v>
+      </c>
+      <c r="L23" s="30">
+        <v>2</v>
+      </c>
+      <c r="M23" s="30">
+        <v>2</v>
+      </c>
+      <c r="N23" s="30">
+        <v>2</v>
+      </c>
+      <c r="O23" s="30">
+        <v>2</v>
+      </c>
+      <c r="P23" s="32">
         <v>4</v>
       </c>
-      <c r="Q22" s="30">
-        <v>2</v>
-      </c>
-      <c r="R22" s="30">
-        <v>2</v>
-      </c>
-      <c r="S22" s="30">
-        <v>2</v>
-      </c>
-      <c r="T22" s="29">
+      <c r="Q23" s="30">
+        <v>2</v>
+      </c>
+      <c r="R23" s="30">
+        <v>2</v>
+      </c>
+      <c r="S23" s="30">
+        <v>2</v>
+      </c>
+      <c r="T23" s="29">
         <v>1</v>
       </c>
-      <c r="U22" s="29">
+      <c r="U23" s="29">
         <v>1</v>
       </c>
-      <c r="V22" s="29">
+      <c r="V23" s="29">
         <v>1</v>
       </c>
-      <c r="W22" s="29">
+      <c r="W23" s="29">
         <v>1</v>
       </c>
-      <c r="X22" s="29">
+      <c r="X23" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" ht="22.5" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>2</v>
-      </c>
-      <c r="R23" s="11">
-        <v>3</v>
-      </c>
-      <c r="S23" s="11">
-        <v>3</v>
-      </c>
-      <c r="T23" s="35">
-        <v>5</v>
-      </c>
-      <c r="U23" s="11">
-        <v>3</v>
-      </c>
-      <c r="V23" s="7">
-        <v>2</v>
-      </c>
-      <c r="W23" s="7">
-        <v>2</v>
-      </c>
-      <c r="X23" s="7">
-        <v>2</v>
+      <c r="Y23" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="28">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="22.5" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q24" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="R24" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="S24" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="T24" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="U24" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="V24" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="W24" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="X24" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" s="17" customFormat="1" ht="111.75" customHeight="1">
-      <c r="A25" s="17" t="s">
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>2</v>
+      </c>
+      <c r="R24" s="11">
+        <v>3</v>
+      </c>
+      <c r="S24" s="11">
+        <v>3</v>
+      </c>
+      <c r="T24" s="35">
+        <v>5</v>
+      </c>
+      <c r="U24" s="11">
+        <v>3</v>
+      </c>
+      <c r="V24" s="7">
+        <v>2</v>
+      </c>
+      <c r="W24" s="7">
+        <v>2</v>
+      </c>
+      <c r="X24" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="22.5" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="R25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="T25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="U25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="V25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="W25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="X25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y25" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z25" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA25" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB25" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC25" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD25" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="17" customFormat="1" ht="111.75" customHeight="1">
+      <c r="A26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O25" s="17" t="s">
+      <c r="O26" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="T26" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="P25" s="17" t="s">
+      <c r="Z26" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB26" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" s="17" customFormat="1" ht="17.25" customHeight="1"/>
+    <row r="28" spans="1:30" s="17" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A28" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="R28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="S28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="T28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="U28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="V28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="W28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="X28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD28" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="17" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A29" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="R29" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="S29" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="T29" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="W29" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="R25" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" s="17" customFormat="1" ht="17.25" customHeight="1"/>
-    <row r="27" spans="1:30" s="17" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A27" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="R27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="S27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="T27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="U27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="V27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="W27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="X27" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" s="17" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A28" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="P28" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q28" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="R28" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="S28" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="T28" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="W28" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="X28" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" s="17" customFormat="1" ht="33" customHeight="1">
-      <c r="A29" s="17" t="s">
+      <c r="X29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA29" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="17" customFormat="1" ht="33" customHeight="1">
+      <c r="A30" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="P29" s="17" t="s">
+      <c r="P30" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="Q29" s="17" t="s">
+      <c r="Q30" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="R29" s="17" t="s">
+      <c r="R30" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="S29" s="17" t="s">
+      <c r="S30" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="T29" s="17" t="s">
+      <c r="T30" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="U29" s="17" t="s">
+      <c r="U30" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="17" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A30" s="17" t="s">
+    <row r="31" spans="1:30" s="17" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A31" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="P30" s="17" t="s">
+      <c r="P31" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="Q30" s="17" t="s">
+      <c r="Q31" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="R30" s="17" t="s">
+      <c r="R31" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="S30" s="17" t="s">
+      <c r="S31" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="T30" s="17" t="s">
+      <c r="T31" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="17" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A31" s="17" t="s">
+    <row r="32" spans="1:30" s="17" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A32" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1978,14 +2318,795 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="2" customWidth="1"/>
+    <col min="12" max="13" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="24">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="28">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="25">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="29">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="20">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="30">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="4">
+        <v>2</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="26">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="31">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="5">
+        <v>3</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="27">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="32">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" s="6">
+        <v>4</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="38">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="35">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="7">
+        <v>5</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="L8" s="33">
+        <v>6</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="U8" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="L9" s="34">
+        <v>7</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="U9" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="U10" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="U11" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="16">
+        <v>10</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="19"/>
+      <c r="U12" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="20"/>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="Q15" s="14"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="1:32" s="12" customFormat="1">
+      <c r="A17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="12">
+        <v>43221</v>
+      </c>
+      <c r="C17" s="12">
+        <v>43222</v>
+      </c>
+      <c r="D17" s="12">
+        <v>43223</v>
+      </c>
+      <c r="E17" s="12">
+        <v>43224</v>
+      </c>
+      <c r="F17" s="12">
+        <v>43225</v>
+      </c>
+      <c r="G17" s="12">
+        <v>43226</v>
+      </c>
+      <c r="H17" s="12">
+        <v>43227</v>
+      </c>
+      <c r="I17" s="12">
+        <v>43228</v>
+      </c>
+      <c r="J17" s="12">
+        <v>43229</v>
+      </c>
+      <c r="K17" s="12">
+        <v>43230</v>
+      </c>
+      <c r="L17" s="12">
+        <v>43231</v>
+      </c>
+      <c r="M17" s="12">
+        <v>43232</v>
+      </c>
+      <c r="N17" s="12">
+        <v>43233</v>
+      </c>
+      <c r="O17" s="12">
+        <v>43234</v>
+      </c>
+      <c r="P17" s="12">
+        <v>43235</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>43236</v>
+      </c>
+      <c r="R17" s="12">
+        <v>43237</v>
+      </c>
+      <c r="S17" s="12">
+        <v>43238</v>
+      </c>
+      <c r="T17" s="12">
+        <v>43239</v>
+      </c>
+      <c r="U17" s="12">
+        <v>43240</v>
+      </c>
+      <c r="V17" s="12">
+        <v>43241</v>
+      </c>
+      <c r="W17" s="12">
+        <v>43242</v>
+      </c>
+      <c r="X17" s="12">
+        <v>43243</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>43244</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>43245</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>43246</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>43247</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>43248</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>43249</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>43250</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>43251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" s="17" customFormat="1" ht="45" customHeight="1">
+      <c r="A19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+    </row>
+    <row r="21" spans="1:32" ht="22.5" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="20">
+        <v>2</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+    </row>
+    <row r="22" spans="1:32" s="19" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A22" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+    </row>
+    <row r="23" spans="1:32" ht="17.25" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="28">
+        <v>0</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+    </row>
+    <row r="24" spans="1:32" ht="22.5" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+    </row>
+    <row r="25" spans="1:32" ht="22.5" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+    </row>
+    <row r="26" spans="1:32" s="17" customFormat="1" ht="111.75" customHeight="1">
+      <c r="A26" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" s="17" customFormat="1" ht="17.25" customHeight="1"/>
+    <row r="28" spans="1:32" s="17" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A28" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" s="17" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A29" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" s="17" customFormat="1" ht="33" customHeight="1">
+      <c r="A30" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" s="17" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A31" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" s="17" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A32" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
